--- a/natmiOut/OldD0/LR-pairs_lrc2p/Reln-Itga3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Reln-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0300251160585709</v>
+        <v>0.03565433333333334</v>
       </c>
       <c r="H2">
-        <v>0.0300251160585709</v>
+        <v>0.106963</v>
       </c>
       <c r="I2">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581826</v>
       </c>
       <c r="J2">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.20561225939693</v>
+        <v>8.269168666666666</v>
       </c>
       <c r="N2">
-        <v>3.20561225939693</v>
+        <v>24.807506</v>
       </c>
       <c r="O2">
-        <v>0.4577394851165908</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="P2">
-        <v>0.4577394851165908</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="Q2">
-        <v>0.09624888012717051</v>
+        <v>0.2948316960308889</v>
       </c>
       <c r="R2">
-        <v>0.09624888012717051</v>
+        <v>2.653485264278</v>
       </c>
       <c r="S2">
-        <v>0.0009775475019508885</v>
+        <v>0.001620322914943341</v>
       </c>
       <c r="T2">
-        <v>0.0009775475019508885</v>
+        <v>0.001620322914943341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0300251160585709</v>
+        <v>0.03565433333333334</v>
       </c>
       <c r="H3">
-        <v>0.0300251160585709</v>
+        <v>0.106963</v>
       </c>
       <c r="I3">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581826</v>
       </c>
       <c r="J3">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.79752459819889</v>
+        <v>0.121294</v>
       </c>
       <c r="N3">
-        <v>3.79752459819889</v>
+        <v>0.363882</v>
       </c>
       <c r="O3">
-        <v>0.5422605148834093</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="P3">
-        <v>0.5422605148834093</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="Q3">
-        <v>0.1140211167961995</v>
+        <v>0.004324656707333334</v>
       </c>
       <c r="R3">
-        <v>0.1140211167961995</v>
+        <v>0.038921910366</v>
       </c>
       <c r="S3">
-        <v>0.001158050439096075</v>
+        <v>2.376725588357867E-05</v>
       </c>
       <c r="T3">
-        <v>0.001158050439096075</v>
+        <v>2.376725588357866E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.37872951245898</v>
+        <v>0.03565433333333334</v>
       </c>
       <c r="H4">
-        <v>7.37872951245898</v>
+        <v>0.106963</v>
       </c>
       <c r="I4">
-        <v>0.5248272654004154</v>
+        <v>0.002412342638581826</v>
       </c>
       <c r="J4">
-        <v>0.5248272654004154</v>
+        <v>0.002412342638581825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.20561225939693</v>
+        <v>3.920705666666667</v>
       </c>
       <c r="N4">
-        <v>3.20561225939693</v>
+        <v>11.762117</v>
       </c>
       <c r="O4">
-        <v>0.4577394851165908</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="P4">
-        <v>0.4577394851165908</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="Q4">
-        <v>23.65334578391244</v>
+        <v>0.1397901467412222</v>
       </c>
       <c r="R4">
-        <v>23.65334578391244</v>
+        <v>1.258111320671</v>
       </c>
       <c r="S4">
-        <v>0.2402341622395345</v>
+        <v>0.0007682524677549057</v>
       </c>
       <c r="T4">
-        <v>0.2402341622395345</v>
+        <v>0.0007682524677549056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.37872951245898</v>
+        <v>8.066615333333333</v>
       </c>
       <c r="H5">
-        <v>7.37872951245898</v>
+        <v>24.199846</v>
       </c>
       <c r="I5">
-        <v>0.5248272654004154</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="J5">
-        <v>0.5248272654004154</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.79752459819889</v>
+        <v>8.269168666666666</v>
       </c>
       <c r="N5">
-        <v>3.79752459819889</v>
+        <v>24.807506</v>
       </c>
       <c r="O5">
-        <v>0.5422605148834093</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="P5">
-        <v>0.5422605148834093</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="Q5">
-        <v>28.02090682701908</v>
+        <v>66.70420276045287</v>
       </c>
       <c r="R5">
-        <v>28.02090682701908</v>
+        <v>600.337824844076</v>
       </c>
       <c r="S5">
-        <v>0.2845931031608809</v>
+        <v>0.3665899891728912</v>
       </c>
       <c r="T5">
-        <v>0.2845931031608809</v>
+        <v>0.3665899891728912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.65059403514115</v>
+        <v>8.066615333333333</v>
       </c>
       <c r="H6">
-        <v>6.65059403514115</v>
+        <v>24.199846</v>
       </c>
       <c r="I6">
-        <v>0.4730371366585377</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="J6">
-        <v>0.4730371366585377</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.20561225939693</v>
+        <v>0.121294</v>
       </c>
       <c r="N6">
-        <v>3.20561225939693</v>
+        <v>0.363882</v>
       </c>
       <c r="O6">
-        <v>0.4577394851165908</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="P6">
-        <v>0.4577394851165908</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="Q6">
-        <v>21.31922577132057</v>
+        <v>0.9784320402413332</v>
       </c>
       <c r="R6">
-        <v>21.31922577132057</v>
+        <v>8.805888362172</v>
       </c>
       <c r="S6">
-        <v>0.2165277753751055</v>
+        <v>0.005377223266224747</v>
       </c>
       <c r="T6">
-        <v>0.2165277753751055</v>
+        <v>0.005377223266224747</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.65059403514115</v>
+        <v>8.066615333333333</v>
       </c>
       <c r="H7">
-        <v>6.65059403514115</v>
+        <v>24.199846</v>
       </c>
       <c r="I7">
-        <v>0.4730371366585377</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="J7">
-        <v>0.4730371366585377</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.79752459819889</v>
+        <v>3.920705666666667</v>
       </c>
       <c r="N7">
-        <v>3.79752459819889</v>
+        <v>11.762117</v>
       </c>
       <c r="O7">
-        <v>0.5422605148834093</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="P7">
-        <v>0.5422605148834093</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="Q7">
-        <v>25.25579444108333</v>
+        <v>31.62682444822022</v>
       </c>
       <c r="R7">
-        <v>25.25579444108333</v>
+        <v>284.641420033982</v>
       </c>
       <c r="S7">
-        <v>0.2565093612834323</v>
+        <v>0.173813294398892</v>
       </c>
       <c r="T7">
-        <v>0.2565093612834323</v>
+        <v>0.173813294398892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.677692666666666</v>
+      </c>
+      <c r="H8">
+        <v>20.033078</v>
+      </c>
+      <c r="I8">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="J8">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.269168666666666</v>
+      </c>
+      <c r="N8">
+        <v>24.807506</v>
+      </c>
+      <c r="O8">
+        <v>0.671680253471746</v>
+      </c>
+      <c r="P8">
+        <v>0.671680253471746</v>
+      </c>
+      <c r="Q8">
+        <v>55.21896696482977</v>
+      </c>
+      <c r="R8">
+        <v>496.9707026834679</v>
+      </c>
+      <c r="S8">
+        <v>0.3034699413839114</v>
+      </c>
+      <c r="T8">
+        <v>0.3034699413839114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.677692666666666</v>
+      </c>
+      <c r="H9">
+        <v>20.033078</v>
+      </c>
+      <c r="I9">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="J9">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.121294</v>
+      </c>
+      <c r="N9">
+        <v>0.363882</v>
+      </c>
+      <c r="O9">
+        <v>0.009852354928133683</v>
+      </c>
+      <c r="P9">
+        <v>0.009852354928133683</v>
+      </c>
+      <c r="Q9">
+        <v>0.8099640543106666</v>
+      </c>
+      <c r="R9">
+        <v>7.289676488795999</v>
+      </c>
+      <c r="S9">
+        <v>0.004451364406025358</v>
+      </c>
+      <c r="T9">
+        <v>0.004451364406025358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.677692666666666</v>
+      </c>
+      <c r="H10">
+        <v>20.033078</v>
+      </c>
+      <c r="I10">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="J10">
+        <v>0.4518071505234102</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.920705666666667</v>
+      </c>
+      <c r="N10">
+        <v>11.762117</v>
+      </c>
+      <c r="O10">
+        <v>0.3184673916001203</v>
+      </c>
+      <c r="P10">
+        <v>0.3184673916001203</v>
+      </c>
+      <c r="Q10">
+        <v>26.18126747845844</v>
+      </c>
+      <c r="R10">
+        <v>235.631407306126</v>
+      </c>
+      <c r="S10">
+        <v>0.1438858447334734</v>
+      </c>
+      <c r="T10">
+        <v>0.1438858447334734</v>
       </c>
     </row>
   </sheetData>
